--- a/report_ca_nhan/CẦN THƠ/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -2150,7 +2150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2345,7 +2345,7 @@
         <v>30000000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000000</v>
+        <v>30000000</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -3143,59 +3143,154 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>158</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-196</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>lê hoàng phúc</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="R11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24700000</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>173950000</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>173950000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>145950000</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2981000</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33700000</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>203950000</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>203950000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>184950000</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4511000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>0.4</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W12" t="n">
         <v>850000</v>
       </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3235,7 +3330,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -3245,7 +3340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -3255,7 +3350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2327380.952380952</v>
+        <v>2601190.476190476</v>
       </c>
     </row>
     <row r="5">
@@ -3325,7 +3420,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3531000</v>
+        <v>5061000</v>
       </c>
     </row>
     <row r="12">
@@ -3345,7 +3440,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2327380.952380952</v>
+        <v>2601190.476190476</v>
       </c>
     </row>
     <row r="14">
@@ -3435,7 +3530,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2327380.952380952</v>
+        <v>2601190.476190476</v>
       </c>
     </row>
     <row r="23">
@@ -3525,7 +3620,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13383380.95238095</v>
+        <v>15257190.47619048</v>
       </c>
     </row>
     <row r="32">
@@ -3535,7 +3630,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3227380.952380952</v>
+        <v>3501190.476190476</v>
       </c>
     </row>
     <row r="33">
@@ -3545,7 +3640,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6167380.952380952</v>
+        <v>6441190.476190476</v>
       </c>
     </row>
     <row r="34">
@@ -3555,7 +3650,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22778142.85714285</v>
+        <v>25199571.42857143</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -1222,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,35 +1927,91 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>577</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Trương Thị Thuỳ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>44600000</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>49600000</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>13000000</v>
       </c>
-      <c r="K13" t="n">
-        <v>57600000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>46600000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4660000</v>
+      <c r="K14" t="n">
+        <v>62600000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>51600000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5160000</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3436,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3460000</v>
+        <v>3960000</v>
       </c>
     </row>
     <row r="8">
@@ -3620,7 +3676,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15257190.47619048</v>
+        <v>15757190.47619048</v>
       </c>
     </row>
     <row r="32">
@@ -3650,7 +3706,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25199571.42857143</v>
+        <v>25699571.42857143</v>
       </c>
     </row>
   </sheetData>
